--- a/Excel/镇魂街/新配置表/模板.xlsx
+++ b/Excel/镇魂街/新配置表/模板.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00AB37D-E713-43D0-8960-520FFDDE15EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -262,19 +261,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
